--- a/data/predictions/race/aid_blacks/leveled/leanrepublican.xlsx
+++ b/data/predictions/race/aid_blacks/leveled/leanrepublican.xlsx
@@ -955,7 +955,7 @@
         <v>0.3225707924104069</v>
       </c>
       <c r="F34">
-        <v>0.04323957402235353</v>
+        <v>0.06055947359610604</v>
       </c>
       <c r="H34">
         <v>0.0589356418743487</v>
@@ -975,7 +975,7 @@
         <v>0.3447154979719166</v>
       </c>
       <c r="F35">
-        <v>0.03957824553056467</v>
+        <v>0.05144133910543711</v>
       </c>
       <c r="H35">
         <v>0.04653675769189438</v>
@@ -995,7 +995,7 @@
         <v>0.3515860472296046</v>
       </c>
       <c r="F36">
-        <v>0.04025148536335779</v>
+        <v>0.0376240610660741</v>
       </c>
       <c r="H36">
         <v>0.04326973614354628</v>
@@ -1015,7 +1015,7 @@
         <v>0.3536428973743102</v>
       </c>
       <c r="F37">
-        <v>0.03971541691726922</v>
+        <v>0.04908981670796504</v>
       </c>
       <c r="H37">
         <v>0.04151428629648795</v>
@@ -1035,7 +1035,7 @@
         <v>0.3541826948786334</v>
       </c>
       <c r="F38">
-        <v>0.03951673535814657</v>
+        <v>0.02998463494913464</v>
       </c>
       <c r="H38">
         <v>0.04000904268880147</v>
@@ -1055,7 +1055,7 @@
         <v>0.3542443884010346</v>
       </c>
       <c r="F39">
-        <v>0.03922392568174862</v>
+        <v>0.04329889703550067</v>
       </c>
       <c r="H39">
         <v>0.03854521502067458</v>
